--- a/storage/app/public/files/import-students-format.xlsx
+++ b/storage/app/public/files/import-students-format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -62,6 +62,468 @@
   </si>
   <si>
     <t xml:space="preserve">INACTIVO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantebachillerato1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiante BACHILLERATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHILLERATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Ciencias y Tecnologia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantebachillerato2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanidades y Ciencias Sociales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantebachillerato3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 General</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantebachillerato4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Ciencias</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantebachillerato5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Humanidades y Ciencias Sociales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantecf1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiante CICLO FORMATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO FORMATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 FPB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantecf2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 FPB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantecf3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 CFGM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">estudiantecf4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">com</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 CFGM</t>
   </si>
 </sst>
 </file>
@@ -71,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,6 +558,25 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFF78C6C"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFC792EA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -143,12 +624,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,6 +650,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF78C6C"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFC792EA"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -169,17 +718,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,6 +791,186 @@
       </c>
       <c r="F3" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>45454545</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>67676767</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>32323232</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>78787878</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>98989898</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>90909090</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>86435647</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>29573648</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>98634533</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
